--- a/PRicing Doc.xlsx
+++ b/PRicing Doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshwinS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshwinS\Desktop\Research Docs\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Technology</t>
   </si>
@@ -35,42 +35,9 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Open Source</t>
-  </si>
-  <si>
-    <t>VSTS</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>jenkins(Client on VM)</t>
-  </si>
-  <si>
     <t>Required For</t>
   </si>
   <si>
-    <t>Cloud Infrastructure</t>
-  </si>
-  <si>
-    <t>Azure DevOps</t>
-  </si>
-  <si>
-    <t>Free For 5 users</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>Cloud Optimize, Dockerized</t>
-  </si>
-  <si>
     <t>Amazon EKS</t>
   </si>
   <si>
@@ -92,12 +59,6 @@
     <t>₹13.72/hr For EKS</t>
   </si>
   <si>
-    <t>Additional charges for resources used:                                   1. 16Gb RAM, 4 Core, t3.xlarge,EC2: ₹12.29/hr                      2. Storage, EBS: ₹7.82 per GB/Month                                        3. db.t3.medium, RDS: ₹6.72/hr</t>
-  </si>
-  <si>
-    <t>Only charged for resources used, Ex :                                       1. 16Gb RAM, 4 Core, t3.xlarge,EC2: ₹12.29/hr                      2. Storage, EBS: ₹7.82 per GB/Month                                        3. db.t3.medium, RDS: ₹6.72/hr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monthly Cost estimate </t>
   </si>
   <si>
@@ -105,6 +66,12 @@
   </si>
   <si>
     <t>Cloud Optimized, Non Dockerized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional charges for resources used:                                   1. 16Gb RAM, 4 Core, t3.xlarge,EC2: ₹12.29/hr                      2. 20Gb Storage, EBS: ₹7.82 per GB/Month                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only charged for resources used, Ex :                                       1. 16Gb RAM, 4 Core, t3.xlarge,EC2: ₹12.29/hr                      2. 20Gb Storage, EBS: ₹7.82 per GB/Month   </t>
   </si>
 </sst>
 </file>
@@ -451,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -481,118 +448,58 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
         <f>(3.03*(24*30))</f>
         <v>2181.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <f>(13.72*(24*30))+(12.29*(24*30))+(7.82*20)</f>
+        <v>18883.599999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3">
-        <f>(13.72*(24*30))+(12.29*(24*30))+(7.82*(24*30))+(6.72*(24*30))</f>
-        <v>29196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3">
-        <f>(12.29*(24*30))+(7.82*(24*30))+(6.72*(24*30))</f>
-        <v>19317.599999999999</v>
+      <c r="E4" s="3">
+        <f>(12.29*(24*30))+(7.82*20)</f>
+        <v>9005.1999999999989</v>
       </c>
     </row>
   </sheetData>
